--- a/medicine/Enfance/Jess_Lourey/Jess_Lourey.xlsx
+++ b/medicine/Enfance/Jess_Lourey/Jess_Lourey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jess Lourey, née en 1970, est une romancière américaine, auteure de roman policier.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Mira James
-May Day (2006)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Mira James</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>May Day (2006)
 Jour de mai, Varennes (2008)  (ISBN 978-2-89565-685-2)
 June Bug (2007)
 Potins de juin, Varennes (2009)  (ISBN 978-2-89565-686-9)
@@ -555,80 +577,407 @@
 February Fever (2015)
 March of Crime (2017)
 April Fools (2019)
-Monday Is Murder (2022) (court roman)
-Série Salem Wiley
-Salem’s Cipher (2016)
-Mercy’s Chase (2018)
-The Toadhouse trilogy
-The Toadhouse Trilogy: Book One (2012)
-Série Van Reed et Harry Steinbeck
-The Taken Ones (2023)
-Autres romans
-The Catalain Book of Secrets (2018)
+Monday Is Murder (2022) (court roman)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Salem Wiley</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Salem’s Cipher (2016)
+Mercy’s Chase (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The Toadhouse trilogy</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Toadhouse Trilogy: Book One (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Van Reed et Harry Steinbeck</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Taken Ones (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Catalain Book of Secrets (2018)
 Unspeakable Things (2020)
 Bloodline (2021)
 Litani (2021)
-The Quarry Girls (2022)
-Littérature d'enfance et de jeunesse
-Leave My Book Alone! (2021)
-Fantasy
-The Savages of Underrock signé Albert Lea (2014)
-Nouvelles
-Beauty Is in the Eye of the Newt (2014)
+The Quarry Girls (2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Leave My Book Alone! (2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Savages of Underrock signé Albert Lea (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Beauty Is in the Eye of the Newt (2014)
 Give Her a Hand (2014)
 The Paper Frog (2014)
 Death by Potato Salad (2014)
 The Adventure of the First Problem (2016)
 He's Not Dead Yet (2016)
-Catch Her in a Lie (2022)
-Autre ouvrage
-Rewrite Your Life: Discover Your Truth Through the Healing Power of Fiction (2017) (signé  Jessica Lourey)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jess_Lourey</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Catch Her in a Lie (2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rewrite Your Life: Discover Your Truth Through the Healing Power of Fiction (2017) (signé  Jessica Lourey)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Anthony 2021 du meilleur livre de poche original pour Unspeakable Things[1]
-Prix Thriller 2022 pour Bloodline[2]
-Prix Anthony 2022 du meilleur livre de poche original pour Bloodline[1]
-Prix Anthony 2023 du meilleur livre de poche original pour The Quarry Girls[1]
-Nominations
-Prix Lefty 2008 pour Knee High by the Fourth of July[3]
-Prix Lefty 2012 pour October Fest[3]
-Prix Lefty 2013 pour December Dread[3]
-Prix Lefty 2015 pour January Thaw[3]
-Prix Lefty 2016 pour February Fever[3]
-Prix Anthony 2017 du meilleur livre de poche original pour Salem’s Cipher[1]
-Prix Agatha 2017 du meilleur ouvrage non fictionnel pour Rewrite Your Life: Discover Your Truth Through the Healing Power of Fiction[4]
-Prix Anthony 2018 du meilleur ouvrage non fictionnel pour Rewrite Your Life: Discover Your Truth Through the Healing Power of Fiction[1]
-Prix Edgar-Allan-Poe 2021 du meilleur livre de poche original pour Unspeakable Things[5]
-Prix Edgar-Allan-Poe 2024 du meilleur livre de poche original pour The Taken Ones [5]
-Prix Anthony 2024 du meilleur livre de poche original pour The Taken Ones[1]</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Prix Anthony 2021 du meilleur livre de poche original pour Unspeakable Things
+Prix Thriller 2022 pour Bloodline
+Prix Anthony 2022 du meilleur livre de poche original pour Bloodline
+Prix Anthony 2023 du meilleur livre de poche original pour The Quarry Girls</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jess_Lourey</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Prix Lefty 2008 pour Knee High by the Fourth of July
+Prix Lefty 2012 pour October Fest
+Prix Lefty 2013 pour December Dread
+Prix Lefty 2015 pour January Thaw
+Prix Lefty 2016 pour February Fever
+Prix Anthony 2017 du meilleur livre de poche original pour Salem’s Cipher
+Prix Agatha 2017 du meilleur ouvrage non fictionnel pour Rewrite Your Life: Discover Your Truth Through the Healing Power of Fiction
+Prix Anthony 2018 du meilleur ouvrage non fictionnel pour Rewrite Your Life: Discover Your Truth Through the Healing Power of Fiction
+Prix Edgar-Allan-Poe 2021 du meilleur livre de poche original pour Unspeakable Things
+Prix Edgar-Allan-Poe 2024 du meilleur livre de poche original pour The Taken Ones 
+Prix Anthony 2024 du meilleur livre de poche original pour The Taken Ones</t>
         </is>
       </c>
     </row>
